--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
@@ -39,7 +39,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">절체절명의 순간 빛의 기사가 전장에 뛰어들었고, 쏟아져 나오는 빛이 고난과 역경을 뒤덮었다. 그렇게 한마음이 된 자매는, 명예로운 승리를 향해 나아가게 된다.
+    <t xml:space="preserve">절체절명의 순간 빛의 기사가 전장에 뛰어들었고, 쏟아져 나오는 빛이 고난과 어둠을 뒤덮었다. 그렇게 한마음이 된 자매는, 명예로운 승리를 향해 나아가게 된다.
 </t>
   </si>
 </sst>
